--- a/Document/1_Software Requirements Specification/Initial Data Set/Initial Data Set 수정용.xlsx
+++ b/Document/1_Software Requirements Specification/Initial Data Set/Initial Data Set 수정용.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/201902/YoongSoJongSeol/ChemicalManagementApplication/Document/1_Software Requirements Specification/Initial Data Set/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FF6985-C905-5247-948C-4F204471A1EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="보기" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="저온에 보관해야 하는 경우" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="상온에 보관해야 하는 경우" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="고온에 보관해야 하는 경우" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="조해성, 풍해성이 있는 약품을 추가하는 경우" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="연소성,  인화성,  발화성,  폭발성이 있는 약품을 추" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="추가하려는 장소에서 산염기 반응을 일으킬 경우 " sheetId="7" r:id="rId10"/>
+    <sheet name="보기" sheetId="1" r:id="rId1"/>
+    <sheet name="저온에 보관해야 하는 경우" sheetId="2" r:id="rId2"/>
+    <sheet name="상온에 보관해야 하는 경우" sheetId="3" r:id="rId3"/>
+    <sheet name="고온에 보관해야 하는 경우" sheetId="4" r:id="rId4"/>
+    <sheet name="조해성, 풍해성이 있는 약품을 추가하는 경우" sheetId="5" r:id="rId5"/>
+    <sheet name="연소성,  인화성,  발화성,  폭발성이 있는 약품을 추" sheetId="6" r:id="rId6"/>
+    <sheet name="추가하려는 장소에서 산염기 반응을 일으킬 경우 " sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="67">
   <si>
     <t>추가하려는 약품</t>
   </si>
@@ -212,60 +221,96 @@
   </si>
   <si>
     <t>습도낮은시약장</t>
+  </si>
+  <si>
+    <t>사람이 무슨 약품 &amp; 알림</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>기기</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Dotum"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Dotum"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF545454"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -273,7 +318,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -301,7 +346,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -315,125 +366,91 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -623,24 +640,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.29"/>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
@@ -689,13 +711,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="6">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="E2" s="6">
-        <v>1390.0</v>
+        <v>1390</v>
       </c>
       <c r="F2" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
@@ -719,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -763,7 +785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -771,13 +793,13 @@
         <v>23</v>
       </c>
       <c r="D5" s="6">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="E5" s="6">
-        <v>1390.0</v>
+        <v>1390</v>
       </c>
       <c r="F5" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -801,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
@@ -812,7 +834,7 @@
         <v>5.5</v>
       </c>
       <c r="E6" s="7">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>16</v>
@@ -839,7 +861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>33</v>
@@ -848,10 +870,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="10">
-        <v>772.0</v>
+        <v>772</v>
       </c>
       <c r="E7" s="7">
-        <v>1670.0</v>
+        <v>1670</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
@@ -878,7 +900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
@@ -886,10 +908,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="6">
-        <v>-114.0</v>
+        <v>-114</v>
       </c>
       <c r="E8" s="7">
-        <v>-85.0</v>
+        <v>-85</v>
       </c>
       <c r="F8" s="6">
         <v>0.1</v>
@@ -916,7 +938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
@@ -927,7 +949,7 @@
         <v>88.9</v>
       </c>
       <c r="E9" s="7">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>16</v>
@@ -954,7 +976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>46</v>
       </c>
@@ -962,10 +984,10 @@
         <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>651.0</v>
+        <v>651</v>
       </c>
       <c r="E10" s="7">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
@@ -992,7 +1014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="5" t="s">
         <v>35</v>
@@ -1001,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>-11.0</v>
+        <v>-11</v>
       </c>
       <c r="E11" s="7">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>17</v>
@@ -1031,7 +1053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1039,10 +1061,10 @@
         <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>2570.0</v>
+        <v>2570</v>
       </c>
       <c r="E12" s="6">
-        <v>2850.0</v>
+        <v>2850</v>
       </c>
       <c r="F12" s="7">
         <v>12.8</v>
@@ -1069,7 +1091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1080,7 +1102,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="7">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>16</v>
@@ -1107,7 +1129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="B14" s="12" t="s">
         <v>50</v>
       </c>
@@ -1115,13 +1137,13 @@
         <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="E14" s="7">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>16</v>
@@ -1145,7 +1167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1153,10 +1175,10 @@
         <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>-123.0</v>
+        <v>-123</v>
       </c>
       <c r="E15" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>16</v>
@@ -1183,7 +1205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1191,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>-95.0</v>
+        <v>-95</v>
       </c>
       <c r="E16" s="7">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>16</v>
@@ -1221,7 +1243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
@@ -1232,7 +1254,7 @@
         <v>98.5</v>
       </c>
       <c r="E17" s="6">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -1259,7 +1281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
@@ -1270,7 +1292,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="6">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>16</v>
@@ -1297,7 +1319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>52</v>
       </c>
@@ -1308,7 +1330,7 @@
         <v>13.5</v>
       </c>
       <c r="E19" s="7">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>16</v>
@@ -1335,7 +1357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
@@ -1343,10 +1365,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E20" s="7">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
@@ -1373,7 +1395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
@@ -1381,10 +1403,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="7">
-        <v>-127.0</v>
+        <v>-127</v>
       </c>
       <c r="E21" s="7">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
@@ -1411,7 +1433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1419,10 +1441,10 @@
         <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>-65.0</v>
+        <v>-65</v>
       </c>
       <c r="E22" s="7">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>16</v>
@@ -1449,7 +1471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1457,10 +1479,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="7">
-        <v>-122.0</v>
+        <v>-122</v>
       </c>
       <c r="E23" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>16</v>
@@ -1487,7 +1509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>54</v>
       </c>
@@ -1495,7 +1517,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="7">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>56</v>
@@ -1525,7 +1547,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1545,15 +1567,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="5">
-        <v>-20.0</v>
+        <v>-20</v>
       </c>
       <c r="C28" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>43</v>
@@ -1565,15 +1587,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C29" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>43</v>
@@ -1585,15 +1607,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="5">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C30" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>43</v>
@@ -1605,15 +1627,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="5">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="C31" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>43</v>
@@ -1625,15 +1647,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C32" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>43</v>
@@ -1645,15 +1667,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>43</v>
@@ -1665,15 +1687,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C34" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>43</v>
@@ -1685,15 +1707,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C35" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>63</v>
@@ -1705,15 +1727,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C36" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>43</v>
@@ -1725,22 +1747,34 @@
         <v>16</v>
       </c>
     </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1792,13 +1826,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="4">
-        <v>-95.0</v>
+        <v>-95</v>
       </c>
       <c r="E2" s="4">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
@@ -1822,7 +1856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1833,10 +1867,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="4">
-        <v>-122.0</v>
+        <v>-122</v>
       </c>
       <c r="E3" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>16</v>
@@ -1863,7 +1897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1907,7 +1941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
@@ -1915,10 +1949,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>-123.0</v>
+        <v>-123</v>
       </c>
       <c r="E6" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>16</v>
@@ -1945,7 +1979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1953,10 +1987,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="6">
-        <v>-114.0</v>
+        <v>-114</v>
       </c>
       <c r="E7" s="7">
-        <v>-85.0</v>
+        <v>-85</v>
       </c>
       <c r="F7" s="6">
         <v>0.1</v>
@@ -1983,7 +2017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1994,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="6">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
@@ -2021,7 +2055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
@@ -2029,10 +2063,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>-127.0</v>
+        <v>-127</v>
       </c>
       <c r="E9" s="7">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>16</v>
@@ -2059,7 +2093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2079,15 +2113,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="3">
-        <v>-20.0</v>
+        <v>-20</v>
       </c>
       <c r="C13" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>43</v>
@@ -2100,25 +2134,27 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.29"/>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -2176,10 +2212,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="7">
-        <v>-123.0</v>
+        <v>-123</v>
       </c>
       <c r="E2" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -2206,7 +2242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -2217,10 +2253,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="7">
-        <v>-122.0</v>
+        <v>-122</v>
       </c>
       <c r="E3" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>16</v>
@@ -2247,7 +2283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2297,7 +2333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>35</v>
@@ -2306,13 +2342,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="4">
-        <v>-11.0</v>
+        <v>-11</v>
       </c>
       <c r="E6" s="4">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="F6" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>17</v>
@@ -2339,7 +2375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
@@ -2350,7 +2386,7 @@
         <v>5.5</v>
       </c>
       <c r="E7" s="7">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -2380,7 +2416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2388,13 +2424,13 @@
         <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>-95.0</v>
+        <v>-95</v>
       </c>
       <c r="E8" s="7">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
@@ -2421,7 +2457,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
@@ -2429,10 +2465,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>-65.0</v>
+        <v>-65</v>
       </c>
       <c r="E9" s="7">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
@@ -2462,7 +2498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -2488,15 +2524,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>43</v>
@@ -2509,21 +2545,23 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -2575,10 +2613,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>16</v>
@@ -2605,7 +2643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2649,7 +2687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2657,10 +2695,10 @@
         <v>21</v>
       </c>
       <c r="D5" s="4">
-        <v>-122.0</v>
+        <v>-122</v>
       </c>
       <c r="E5" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
@@ -2687,7 +2725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2695,10 +2733,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="4">
-        <v>-127.0</v>
+        <v>-127</v>
       </c>
       <c r="E6" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
@@ -2725,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2733,10 +2771,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="6">
-        <v>-114.0</v>
+        <v>-114</v>
       </c>
       <c r="E7" s="4">
-        <v>-85.0</v>
+        <v>-85</v>
       </c>
       <c r="F7" s="6">
         <v>0.1</v>
@@ -2763,7 +2801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2771,10 +2809,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="4">
-        <v>-123.0</v>
+        <v>-123</v>
       </c>
       <c r="E8" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
@@ -2801,12 +2839,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2826,15 +2864,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -2847,21 +2885,23 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +2942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -2913,10 +2953,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="6">
-        <v>-114.0</v>
+        <v>-114</v>
       </c>
       <c r="E2" s="7">
-        <v>-85.0</v>
+        <v>-85</v>
       </c>
       <c r="F2" s="6">
         <v>0.1</v>
@@ -2943,7 +2983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -2957,7 +2997,7 @@
         <v>88.9</v>
       </c>
       <c r="E3" s="7">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>16</v>
@@ -2984,7 +3024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3028,7 +3068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
@@ -3039,7 +3079,7 @@
         <v>13.5</v>
       </c>
       <c r="E6" s="7">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>16</v>
@@ -3069,7 +3109,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>53</v>
       </c>
@@ -3077,10 +3117,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E7" s="7">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
@@ -3110,7 +3150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -3118,10 +3158,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>-127.0</v>
+        <v>-127</v>
       </c>
       <c r="E8" s="7">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
@@ -3151,7 +3191,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
@@ -3159,10 +3199,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>-65.0</v>
+        <v>-65</v>
       </c>
       <c r="E9" s="7">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>16</v>
@@ -3192,7 +3232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -3212,15 +3252,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>43</v>
@@ -3232,32 +3272,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="4:6" ht="15.75" customHeight="1">
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" spans="4:6" ht="15.75" customHeight="1">
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
@@ -3306,13 +3348,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="6">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="E2" s="6">
-        <v>1390.0</v>
+        <v>1390</v>
       </c>
       <c r="F2" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
@@ -3336,7 +3378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -3380,7 +3422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
@@ -3391,7 +3433,7 @@
         <v>5.5</v>
       </c>
       <c r="E5" s="7">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
@@ -3418,7 +3460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>44</v>
@@ -3430,7 +3472,7 @@
         <v>88.9</v>
       </c>
       <c r="E6" s="13">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>16</v>
@@ -3467,7 +3509,7 @@
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
         <v>52</v>
@@ -3479,7 +3521,7 @@
         <v>13.5</v>
       </c>
       <c r="E7" s="13">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>16</v>
@@ -3516,7 +3558,7 @@
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
         <v>45</v>
@@ -3525,10 +3567,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="13">
-        <v>-65.0</v>
+        <v>-65</v>
       </c>
       <c r="E8" s="13">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>16</v>
@@ -3565,12 +3607,12 @@
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -3590,15 +3632,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>43</v>
@@ -3610,12 +3652,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3640,7 +3682,7 @@
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -3665,7 +3707,7 @@
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -3691,21 +3733,23 @@
       <c r="W15" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -3753,7 +3797,7 @@
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
@@ -3761,13 +3805,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="17">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="D2" s="17">
-        <v>1390.0</v>
+        <v>1390</v>
       </c>
       <c r="E2" s="17">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>16</v>
@@ -3801,7 +3845,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
@@ -3809,10 +3853,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="18">
-        <v>772.0</v>
+        <v>772</v>
       </c>
       <c r="D3" s="15">
-        <v>1670.0</v>
+        <v>1670</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>16</v>
@@ -3849,7 +3893,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>50</v>
       </c>
@@ -3857,13 +3901,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="15">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="D4" s="15">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="E4" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>16</v>
@@ -3897,7 +3941,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>35</v>
       </c>
@@ -3905,13 +3949,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="15">
-        <v>-11.0</v>
+        <v>-11</v>
       </c>
       <c r="D5" s="15">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="E5" s="15">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>17</v>
@@ -3945,7 +3989,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
@@ -3956,7 +4000,7 @@
         <v>13.5</v>
       </c>
       <c r="D6" s="15">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>16</v>
@@ -3993,7 +4037,7 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="19"/>
@@ -4017,7 +4061,7 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
@@ -4065,7 +4109,7 @@
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>35</v>
       </c>
@@ -4073,13 +4117,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="16">
-        <v>-11.0</v>
+        <v>-11</v>
       </c>
       <c r="D9" s="16">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="E9" s="16">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>17</v>
@@ -4113,7 +4157,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
@@ -4121,10 +4165,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="18">
-        <v>772.0</v>
+        <v>772</v>
       </c>
       <c r="D10" s="15">
-        <v>1670.0</v>
+        <v>1670</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>16</v>
@@ -4161,7 +4205,7 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>50</v>
       </c>
@@ -4169,13 +4213,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="15">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="D11" s="15">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="E11" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>16</v>
@@ -4209,7 +4253,7 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>52</v>
       </c>
@@ -4220,7 +4264,7 @@
         <v>13.5</v>
       </c>
       <c r="D12" s="15">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>16</v>
@@ -4257,7 +4301,7 @@
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -4265,13 +4309,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="19">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="D13" s="19">
-        <v>1390.0</v>
+        <v>1390</v>
       </c>
       <c r="E13" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>16</v>
@@ -4305,7 +4349,7 @@
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -4329,7 +4373,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>34</v>
       </c>
@@ -4365,21 +4409,21 @@
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="23">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="23">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E16" s="23">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>43</v>
@@ -4401,7 +4445,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:22" ht="15.75" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -4421,63 +4465,63 @@
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:22" ht="15.75" customHeight="1">
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:22" ht="15.75" customHeight="1">
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:22" ht="15.75" customHeight="1">
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:22" ht="15.75" customHeight="1">
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:22" ht="15.75" customHeight="1">
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:22" ht="15.75" customHeight="1">
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:22" ht="15.75" customHeight="1">
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:22" ht="15.75" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -4501,7 +4545,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:22" ht="15.75" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -4525,7 +4569,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:22" ht="15.75" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -4549,7 +4593,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:22" ht="15.75" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -4573,7 +4617,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:22" ht="15.75" customHeight="1">
       <c r="A30" s="24"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -4597,7 +4641,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:22" ht="15.75" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -4621,7 +4665,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:22" ht="15.75" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -4645,7 +4689,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:22" ht="15.75" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -4669,7 +4713,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:22" ht="15.75" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -4693,7 +4737,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:22" ht="15.75" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -4717,7 +4761,7 @@
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:22" ht="15.75" customHeight="1">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -4741,7 +4785,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:22" ht="15.75" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -4765,7 +4809,7 @@
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:22" ht="15.75" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -4789,7 +4833,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:22" ht="15.75" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -4813,7 +4857,7 @@
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:22" ht="15.75" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -4837,7 +4881,7 @@
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:22" ht="15.75" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -4861,7 +4905,7 @@
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:22" ht="15.75" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -4885,7 +4929,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:22" ht="15.75" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -4909,7 +4953,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:22" ht="15.75" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -4933,7 +4977,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:22" ht="15.75" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -4957,7 +5001,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:22" ht="15.75" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -4981,7 +5025,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:22" ht="13">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -5005,7 +5049,7 @@
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:22" ht="13">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -5029,7 +5073,7 @@
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:22" ht="13">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -5053,7 +5097,7 @@
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:22" ht="13">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -5078,6 +5122,7 @@
       <c r="V50" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>